--- a/data/Initial-World-Test4.xlsx
+++ b/data/Initial-World-Test4.xlsx
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>13.95089285714286</v>
+        <v>12.37110849056604</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
@@ -812,20 +812,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -880,7 +880,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -914,20 +914,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>698</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13.87654328018224</v>
+        <v>12.29825187969925</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1062,20 +1062,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1130,7 +1130,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1164,20 +1164,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.80272559591374</v>
+        <v>12.2259691011236</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1312,20 +1312,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1380,7 +1380,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1414,20 +1414,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>13.72943438914028</v>
+        <v>12.15425373134329</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1562,20 +1562,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1630,7 +1630,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1664,20 +1664,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>13.65666431792559</v>
+        <v>12.08309944237918</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1812,20 +1812,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1880,7 +1880,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1914,20 +1914,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>13.58441011235956</v>
+        <v>12.0125</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2062,20 +2062,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2130,7 +2130,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2164,20 +2164,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>13.51266657334827</v>
+        <v>11.94244926199263</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2312,20 +2312,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2380,7 +2380,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2414,20 +2414,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>13.44142857142858</v>
+        <v>11.87294117647059</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2562,20 +2562,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2596,7 +2596,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2630,7 +2630,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2664,20 +2664,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13.37069104560623</v>
+        <v>11.80396978021979</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2812,20 +2812,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2880,7 +2880,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2914,20 +2914,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -2948,7 +2948,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13.3004490022173</v>
+        <v>11.73552919708029</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3062,20 +3062,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Brobdingnag</t>
+          <t>Atlantis</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Dinotopia</t>
+          <t>Brobdingnag</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3130,7 +3130,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Erewhon</t>
+          <t>Carpania</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3164,20 +3164,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Atlantis</t>
+          <t>Dinotopia</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Carpania</t>
+          <t>Erewhon</t>
         </is>
       </c>
       <c r="B79" t="n">
